--- a/Definitions/i_Definitions_Authentication.xlsx
+++ b/Definitions/i_Definitions_Authentication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="968"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="968" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="OAuth" sheetId="3" r:id="rId3"/>
     <sheet name="OpenAM" sheetId="4" r:id="rId4"/>
     <sheet name="LDAP" sheetId="5" r:id="rId5"/>
+    <sheet name="JWT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Up</t>
   </si>
@@ -196,6 +197,18 @@
   </si>
   <si>
     <t>Material Links</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Token based authentication</t>
+  </si>
+  <si>
+    <t>Instead of passing username and password. Client will pass encrypted token to server. Server will check original credentials based on token passed and authenticates user</t>
+  </si>
+  <si>
+    <t>How these tokens will be generated?</t>
   </si>
 </sst>
 </file>
@@ -343,7 +356,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -352,38 +365,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -681,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,6 +737,11 @@
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -759,38 +780,38 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -844,7 +865,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -863,16 +884,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -880,7 +901,7 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -888,21 +909,21 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -910,7 +931,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -918,7 +939,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -926,7 +947,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -934,7 +955,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -942,27 +963,27 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1015,13 +1036,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="14"/>
@@ -1032,22 +1053,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1067,4 +1088,45 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/i_Definitions_Authentication.xlsx
+++ b/Definitions/i_Definitions_Authentication.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="SAML" sheetId="2" r:id="rId2"/>
-    <sheet name="OAuth" sheetId="3" r:id="rId3"/>
+    <sheet name="OAuth2" sheetId="3" r:id="rId3"/>
     <sheet name="OpenAM" sheetId="4" r:id="rId4"/>
     <sheet name="LDAP" sheetId="5" r:id="rId5"/>
     <sheet name="JWT" sheetId="6" r:id="rId6"/>
+    <sheet name="OIC" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>Up</t>
   </si>
@@ -28,9 +29,6 @@
   </si>
   <si>
     <t>SAML</t>
-  </si>
-  <si>
-    <t>Oauth</t>
   </si>
   <si>
     <t>Open AM</t>
@@ -208,14 +206,335 @@
     <t>Instead of passing username and password. Client will pass encrypted token to server. Server will check original credentials based on token passed and authenticates user</t>
   </si>
   <si>
-    <t>How these tokens will be generated?</t>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Completed Materials</t>
+  </si>
+  <si>
+    <t>Oauth2</t>
+  </si>
+  <si>
+    <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pluralsight</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT)</t>
+    </r>
+  </si>
+  <si>
+    <t>Kerberos</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>What is Oauth 2</t>
+  </si>
+  <si>
+    <t>Oauth is about authorization and delegated authorization. 
+Idea is writing an application and that application needs to access some sort of backend service.</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>1. Client requests a token from Authorization Server
+2. Forward that token to backend web api to access the data</t>
+  </si>
+  <si>
+    <t>images\zh-Authentication\OAuth2\1-OAuth.jpg</t>
+  </si>
+  <si>
+    <t>Open ID Connect</t>
+  </si>
+  <si>
+    <t>Open ID Connect(OIC)</t>
+  </si>
+  <si>
+    <t>It is about Authentication. 
+In Open ID Connect, application request token from authentication server and authentication server returns a token.
+Client application allows it to validate the identity. Some time later client uses Oauth to get authorization token to talk to backend service.</t>
+  </si>
+  <si>
+    <t>Open ID Connect vs Oauth</t>
+  </si>
+  <si>
+    <t>1. Open ID connect for authentication
+2. Oauth for authorization</t>
+  </si>
+  <si>
+    <t>What is Security Token and why security token</t>
+  </si>
+  <si>
+    <t>Security Token produce a data structure that contains information about the issuer, recipient and the subject that this token describes. 
+In the context of authentication, lets say we signed in using some authentication server, then that server sends some token. This token is in additionally signed (symmetrically or assymmetrically) by issuer. Based on the sign user can make sure it came from trusted source. 
+Token will have expiration time. so any one who got an access to token cannot access the data.
+Issuer - Issues Token
+Client - Requests Token
+Resource/API - Consumes Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tokens </t>
+  </si>
+  <si>
+    <t>1. Kerberos Service Ticket
+2. SAML 1.1/2.0 - Security Assertion Markup Language - XML based
+3. Simple Web Token (SWT) - Came to simplify SAML
+4. Json Web Token (JWT) - Hybrid of SAML and SWT - Including all features of SAML with less complexity</t>
+  </si>
+  <si>
+    <t>What is JSON Web Token</t>
+  </si>
+  <si>
+    <t>How JSON Web Token look like</t>
+  </si>
+  <si>
+    <t>It has 2 parts.
+Part 1: Header - contains metadata, algorithms &amp; keys used
+Part 2: Claims - Claims fall into 2 areas
+ a. Reserver Claims: 
+ b. Application Defined Claims</t>
+  </si>
+  <si>
+    <t>Parts of Claims</t>
+  </si>
+  <si>
+    <t>1. Issuer (iss) - Recipient knows where the token is coming from
+2. Audience (aud) - Recipient can know whether he is right recipient
+3. IssuedAt (iat) - when token is issued
+4. Expiration (exp) - when token expires
+5. Subject (sub) - entity that this token describes like UserID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Encoding the token using JSON because it is very easy to parse JSON. 
+2. Symmetric and Asymmetric signatures (HMACSHA256-384, ECDSA, RSA)
+3. symmetric and Asymmetric encryption (RSA, AES/CGM)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> These JSON Web Tokens are very small so that we can use these in mobile devices</t>
+    </r>
+  </si>
+  <si>
+    <t>Example JWT</t>
+  </si>
+  <si>
+    <t>images\zh-Authentication\JWT\jwt-structure.JPG</t>
+  </si>
+  <si>
+    <t>Producing JSON Web Token</t>
+  </si>
+  <si>
+    <t>1. Microsoft Nuget</t>
+  </si>
+  <si>
+    <t>What is Oauth 2 - Definition from oauth web site</t>
+  </si>
+  <si>
+    <t>open protocol to allow secure authorization in a simple and standard method from web, mobile and desktop applications</t>
+  </si>
+  <si>
+    <t>Resource Owner</t>
+  </si>
+  <si>
+    <t>Human/application which owns backend data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client </t>
+  </si>
+  <si>
+    <t>Application (Browser/Mobile Device) which tries to access resource owner to access backend data</t>
+  </si>
+  <si>
+    <t>Oauth 2 players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Resource Owner - Human/application that owns resource on Resource Server
+2. Resource Server - Application where data is present
+3. Authorization Server - Application/Software that issues the keys (access-keys, Refresh-keys)
+4. Client - Third party applications (mobiles, browsers, laptops etc) which uses Resource Owner to access data in Resource Server. For clients to access resource they need to have a key (access key). Since we dont want to give full access to resources we will give limited access keys (refresh keys) to client using Authorization Server. </t>
+  </si>
+  <si>
+    <t>Oauth 2 Flows - with user interaction</t>
+  </si>
+  <si>
+    <t>Oauth 2 flow - with no user interaction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization code flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Web application clients
+1. Request authorization
+2. Request token
+3. Access resource</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource owner password credential flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Trusted client
+1. Request token with resource owner credentials
+2. access resource</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client Credential Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Client to service communication
+1. Request token with client credentials
+2. Access Resource</t>
+    </r>
+  </si>
+  <si>
+    <t>Access-Token</t>
+  </si>
+  <si>
+    <t>Short lived token</t>
+  </si>
+  <si>
+    <t>Redresh Token</t>
+  </si>
+  <si>
+    <t>Long Lived Token</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implicit flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Native/local client - applications running in client devices (like mobile, IOS applications)
+1. Request authorization and token
+2. Access resource</t>
+    </r>
+  </si>
+  <si>
+    <t>what is openid connect</t>
+  </si>
+  <si>
+    <t>Specification that sits on top of Oauth 2.
+Used for authentication</t>
+  </si>
+  <si>
+    <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT) [Course]</t>
+  </si>
+  <si>
+    <t>Important Links</t>
+  </si>
+  <si>
+    <t>JWT Web site</t>
+  </si>
+  <si>
+    <t>https://jwt.io/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +582,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +620,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +696,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -372,6 +712,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,6 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -401,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -697,11 +1059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,31 +1088,43 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>43</v>
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="SAML!A1" display="SAML"/>
-    <hyperlink ref="A3" location="OAuth!A1" display="Oauth"/>
+    <hyperlink ref="A3" location="OAuth2!A1" display="Oauth2"/>
     <hyperlink ref="A4" location="OpenAM!A1" display="Open AM"/>
     <hyperlink ref="A5" location="LDAP!A1" display="LDAP"/>
+    <hyperlink ref="A6" location="JWT!A1" display="JWT"/>
+    <hyperlink ref="A8" location="OIC!A1" display="Open ID Connect(OIC)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -762,7 +1136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,39 +1154,39 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8"/>
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="9" t="s">
-        <v>36</v>
+      <c r="A7" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="10"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -830,11 +1204,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,19 +1218,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="18"/>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="18"/>
+      <c r="B24" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="OAuth!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -884,107 +1415,107 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
+      <c r="A6" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11"/>
+      <c r="A14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="11"/>
+      <c r="A19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1036,39 +1567,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="25"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1092,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1113,20 +1644,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="13" customFormat="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="26"/>
+    </row>
+    <row r="14" spans="1:2" s="13" customFormat="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="26"/>
+    </row>
+    <row r="15" spans="1:2" s="13" customFormat="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="26"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75">
+      <c r="A23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="112.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="15"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="OIC!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://app.pluralsight.com/library/courses/oauth2-json-web-tokens-openid-connect-introduction"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/i_Definitions_Authentication.xlsx
+++ b/Definitions/i_Definitions_Authentication.xlsx
@@ -481,9 +481,6 @@
     <t>Short lived token</t>
   </si>
   <si>
-    <t>Redresh Token</t>
-  </si>
-  <si>
     <t>Long Lived Token</t>
   </si>
   <si>
@@ -528,6 +525,9 @@
   </si>
   <si>
     <t>https://jwt.io/</t>
+  </si>
+  <si>
+    <t>Refresh Token</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -727,6 +727,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,9 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1063,7 +1064,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,13 +1155,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1168,7 +1169,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1207,8 +1208,8 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1226,36 +1227,36 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
@@ -1274,7 +1275,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1282,7 +1283,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -1328,7 +1329,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1336,13 +1337,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1350,7 +1351,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="8" t="s">
         <v>88</v>
       </c>
@@ -1364,11 +1365,11 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1416,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1445,7 +1446,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1453,7 +1454,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1499,16 +1500,16 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="22"/>
     </row>
     <row r="20" spans="1:2" ht="90">
       <c r="A20" t="s">
@@ -1567,16 +1568,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -1584,22 +1585,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1627,7 +1628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1645,18 +1646,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B2" s="17"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7"/>
@@ -1671,14 +1664,18 @@
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7"/>
@@ -1689,40 +1686,40 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="13" customFormat="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" s="13" customFormat="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2" s="13" customFormat="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" ht="135">
       <c r="A18" s="7" t="s">
@@ -1797,6 +1794,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B1" location="JWT!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1826,43 +1825,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/i_Definitions_Authentication.xlsx
+++ b/Definitions/i_Definitions_Authentication.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>Up</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Oauth2</t>
   </si>
   <si>
-    <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -516,15 +513,6 @@
   </si>
   <si>
     <t>Introduction to OAuth2, OpenID Connect and JSON Web Tokens (JWT) [Course]</t>
-  </si>
-  <si>
-    <t>Important Links</t>
-  </si>
-  <si>
-    <t>JWT Web site</t>
-  </si>
-  <si>
-    <t>https://jwt.io/</t>
   </si>
   <si>
     <t>Refresh Token</t>
@@ -1109,12 +1097,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1196,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -1240,10 +1228,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1254,122 +1242,122 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="20"/>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="20"/>
       <c r="B24" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="20"/>
       <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1624,11 +1612,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1651,149 +1639,94 @@
       </c>
       <c r="B2" s="17"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" s="13" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2" ht="135">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="13" customFormat="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:2" s="13" customFormat="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2" s="13" customFormat="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="75">
-      <c r="A22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
     <hyperlink ref="B1" location="JWT!A2" display="Up"/>
   </hyperlinks>
@@ -1807,7 +1740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1838,10 +1771,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1852,16 +1785,16 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
